--- a/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.040413348083308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.356806860203829</v>
+        <v>3.356806860203827</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.541798829647287</v>
@@ -649,7 +649,7 @@
         <v>0.2822536567828974</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3804434006526206</v>
+        <v>0.3804434006526203</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2497926819946952</v>
+        <v>0.3621903154954192</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.480418354341059</v>
+        <v>-2.179485041085452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.440513868374007</v>
+        <v>-1.164871348507509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8056059984244585</v>
+        <v>0.6664832600256906</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08329704985976588</v>
+        <v>0.09145797101516812</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4221160672501801</v>
+        <v>-0.3860996810635645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3112379712270845</v>
+        <v>-0.2509886656029956</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.07612461021620037</v>
+        <v>0.03847038994125242</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.421978849290126</v>
+        <v>3.277124530309773</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.490937457497972</v>
+        <v>2.417562521678194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.047607758792798</v>
+        <v>3.03327989386815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.708114986178018</v>
+        <v>5.832685918459093</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.345902066356194</v>
+        <v>5.281681687130852</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7240917177747739</v>
+        <v>0.7086989016875991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.136713221948679</v>
+        <v>1.114047268248144</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8131453897539026</v>
+        <v>0.7718715976969078</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.776572061064128</v>
+        <v>-1.693058194369059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4136715096652124</v>
+        <v>-0.800804079396493</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.105787366351328</v>
+        <v>-0.9935501448640081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.74590415095612</v>
+        <v>1.831171900981999</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4576000447915788</v>
+        <v>-0.4487354926580867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1108141510189688</v>
+        <v>-0.1962633774372556</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.311329040269725</v>
+        <v>-0.2891975553749858</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2716914470987387</v>
+        <v>0.2692949232682096</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.504101391772492</v>
+        <v>1.630121904702472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.389376531638411</v>
+        <v>3.214069908560197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.139332582356746</v>
+        <v>2.172093432624366</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.343277594716477</v>
+        <v>5.44324264884881</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.630871697542282</v>
+        <v>0.7662782841762208</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.106700593628294</v>
+        <v>1.070194620172502</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.030570686675494</v>
+        <v>1.049473285185392</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.317752035650515</v>
+        <v>1.295348238272696</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.3808917277746387</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.09619995081346752</v>
+        <v>0.09619995081346754</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.306245625686584</v>
+        <v>-1.17756842270348</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8373835227463587</v>
+        <v>-0.9988861414920632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8235981874107597</v>
+        <v>-0.7479940784101943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.524347779040789</v>
+        <v>-1.637388004403132</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2635803274435697</v>
+        <v>-0.2678663895184152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1877765421017414</v>
+        <v>-0.2073660569139666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2322467949242327</v>
+        <v>-0.2117648343182566</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2594068627539477</v>
+        <v>-0.2766804011543247</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.956986827407137</v>
+        <v>2.87771564347056</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.390316642431823</v>
+        <v>3.457381268851568</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.091060692756558</v>
+        <v>3.075776960528015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.356269921364208</v>
+        <v>2.344153720650395</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.075206160704192</v>
+        <v>1.087645688973853</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.260614220181426</v>
+        <v>1.270434354799682</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.458748453276503</v>
+        <v>1.616399891131575</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6243044761211962</v>
+        <v>0.613873770415635</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.771994123056949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.034339921455556</v>
+        <v>1.034339921455554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5630462114442778</v>
@@ -949,7 +949,7 @@
         <v>0.6979962194309128</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1530717677300537</v>
+        <v>0.1530717677300535</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3001016770127631</v>
+        <v>-0.01375599002381528</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4106840856085869</v>
+        <v>-0.1390777936123506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08511057533664501</v>
+        <v>0.2336014698333984</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8759942847204336</v>
+        <v>-0.7955097205939226</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0981749938143657</v>
+        <v>-0.02440770096600132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08879457945503483</v>
+        <v>-0.0501394402186216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0001173130094651773</v>
+        <v>0.03150375725893947</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1148697286106783</v>
+        <v>-0.1031111602991258</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.011020237412861</v>
+        <v>2.977573397844486</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.027591791661585</v>
+        <v>4.194240994322385</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.62567664989773</v>
+        <v>3.594470192122375</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.138732892366942</v>
+        <v>2.868045089393251</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.800221245660364</v>
+        <v>1.801668439325576</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.172386946857064</v>
+        <v>1.168877260314919</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.871309899879873</v>
+        <v>1.825599890593511</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.573638557892671</v>
+        <v>0.5121005993663271</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.115891260467877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.13822317890466</v>
+        <v>2.138223178904662</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3597171495261837</v>
@@ -1049,7 +1049,7 @@
         <v>0.3796474096243371</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3426783905205471</v>
+        <v>0.3426783905205475</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1322466058451585</v>
+        <v>0.04619597924819895</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09646167000862876</v>
+        <v>0.2466450282248621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05468154297793253</v>
+        <v>0.2258423595893305</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.042816438549482</v>
+        <v>1.12509667032792</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04071753886556172</v>
+        <v>0.01798437706846875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01992348413433915</v>
+        <v>0.04706023491810588</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01066431851200995</v>
+        <v>0.06057905572928355</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1502582928080681</v>
+        <v>0.1618026188759291</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.794480038594323</v>
+        <v>1.784333636567706</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.363016245620394</v>
+        <v>2.422808604290563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.932151612809362</v>
+        <v>2.124847556335296</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.127119000947727</v>
+        <v>3.095086349342024</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8420494628715224</v>
+        <v>0.7807632170993936</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6474593224358268</v>
+        <v>0.6631916611077922</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7566354833377399</v>
+        <v>0.8634820660166855</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5538411688150563</v>
+        <v>0.546337247212772</v>
       </c>
     </row>
     <row r="19">
